--- a/biology/Médecine/Neurochirurgie/Neurochirurgie.xlsx
+++ b/biology/Médecine/Neurochirurgie/Neurochirurgie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La 
 neurochirurgie est la discipline chirurgicale qui est spécialisée dans la chirurgie du système nerveux central et du système nerveux périphérique. Le chirurgien spécialisé pratiquant la neurochirurgie s'appelle le neurochirurgien.
@@ -512,7 +524,9 @@
           <t>Pathologies concernées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Parmi les états traités par les neurochirurgiens :
 la hernie discale, qui est une saillie que fait un disque intervertébral dans le canal rachidien, qui correspond à l'expulsion en arrière de son noyau gélatineux, le nucleus pulposus et causant une compression médullaire ou radiculaire (en commun avec les orthopédistes) ;
@@ -564,7 +578,9 @@
           <t>Enseignement de la neurochirurgie en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La formation d'un neurochirurgien se déroule en douze années, dont voici son cursus :
 première année commune aux études de santé sanctionnée par un concours ;
@@ -599,7 +615,9 @@
           <t>Qualités et capacités nécessaires en neurochirurgie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le métier de neurochirurgien requiert de nombreuses qualités :
 la confiance en soi est très importante. Un neurochirurgien ne doit pas douter de ses capacités afin de ne pas mettre en péril la vie de ses patients ;
@@ -607,7 +625,7 @@
 un neurochirurgien doit sans cesse se remettre en question pour toujours s'améliorer ;
 ce médecin, même aidé de ses internes, doit pouvoir être compréhensif et à l'écoute de ses patients ;
 la méticulosité, la patience, l'habileté et la concentration sont les principales qualités à posséder ;
-il faut aussi pouvoir surmonter sa peur et son stress afin de ne pas paniquer[2].</t>
+il faut aussi pouvoir surmonter sa peur et son stress afin de ne pas paniquer.</t>
         </is>
       </c>
     </row>
@@ -635,7 +653,9 @@
           <t>Personnalités liées à la neurochirurgie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Harvey Cushing (1869 - 1939) : pionnier de la chirurgie du cerveau.
 Sir William MacEwen (1848 - 1924) : il fut, dans l'histoire de la neurologie, le premier chirurgien à réussir l'ablation d'un méningiome.
